--- a/final_project/gru_gbrbm_H_div_2 (drop 0.2)/type1/pd_results_W20_H200_B16.xlsx
+++ b/final_project/gru_gbrbm_H_div_2 (drop 0.2)/type1/pd_results_W20_H200_B16.xlsx
@@ -518,7 +518,7 @@
         <v>0.7111984282907663</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5182926829268293</v>
+        <v>0.4847560975609756</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -526,19 +526,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.2917762058424586</v>
+        <v>0.1490325221642274</v>
       </c>
       <c r="J2" t="n">
-        <v>3938.929929403931</v>
+        <v>1977.013101074725</v>
       </c>
       <c r="K2" t="n">
-        <v>21124685.51879901</v>
+        <v>5297267.072967175</v>
       </c>
       <c r="L2" t="n">
-        <v>4596.159866540655</v>
+        <v>2301.579256286252</v>
       </c>
       <c r="M2" t="n">
-        <v>-2.984978675318327</v>
+        <v>0.0007190258782964198</v>
       </c>
     </row>
   </sheetData>
